--- a/docs/M3TIDScoringSpreadsheet.xlsx
+++ b/docs/M3TIDScoringSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ioeltjenbruns/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44300F-9679-7D49-9D47-1662C462DF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA18EE6-379A-8240-9121-200D6665FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="-5960" windowWidth="51200" windowHeight="28300" xr2:uid="{A6CEF9E4-12E6-4945-8009-89B93494DE93}"/>
   </bookViews>
@@ -19,8 +19,7 @@
     <sheet name="DM Definition &amp; Scoring" sheetId="21" r:id="rId4"/>
     <sheet name="T&amp;E Definition &amp; Scoring" sheetId="20" r:id="rId5"/>
     <sheet name="Results" sheetId="22" r:id="rId6"/>
-    <sheet name="Coxcomb Data Attempt" sheetId="23" state="hidden" r:id="rId7"/>
-    <sheet name="Example Historical Change Tab" sheetId="17" r:id="rId8"/>
+    <sheet name="Example Historical Change Tab" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Example Historical Change Tab'!$AB$16:$AB$18</definedName>
@@ -83,30 +82,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="181">
   <si>
     <t>Measuring Threat-Informed Defense</t>
   </si>
@@ -165,18 +142,12 @@
     <t>None</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Level 2</t>
   </si>
   <si>
     <t>Ephemeral IOCs: hashes, IPs, domains: data sources an adversary can change easily</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Single Technique </t>
   </si>
   <si>
@@ -595,27 +566,6 @@
   </si>
   <si>
     <t>T&amp;E</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>X-Values</t>
-  </si>
-  <si>
-    <t>Y-Values</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Created with this guide: https://www.automateexcel.com/charts/polar-template/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*used 6 as the radial point value instead of 10 </t>
   </si>
   <si>
     <t>Overall TID Maturity</t>
@@ -900,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1063,13 +1013,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1113,7 +1180,6 @@
     <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1131,11 +1197,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1178,7 +1240,21 @@
     <xf numFmtId="49" fontId="11" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,10 +1276,26 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1236,13 +1328,13 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1407,19 +1499,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,16 +1556,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1521,19 +1613,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,49 +1998,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,3930 +2225,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Polar Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$I$2:$Z$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-805C-4AF9-BC64-2837F418E008}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$I$3:$Z$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-805C-4AF9-BC64-2837F418E008}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000065-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000069-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$I$4:$Z$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-805C-4AF9-BC64-2837F418E008}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000071-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000073-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000075-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000077-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000079-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000007B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000007D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000007F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000081-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000083-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000085-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000087-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000089-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000008B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000008D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000008F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$I$5:$Z$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-805C-4AF9-BC64-2837F418E008}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000091-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000093-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000095-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000097-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000099-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000009B-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000009D-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000009F-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A1-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A3-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A5-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A7-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A9-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000AB-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000AD-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000AF-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B1-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B3-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$I$6:$Z$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-805C-4AF9-BC64-2837F418E008}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B5-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B7-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B9-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BB-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BD-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BF-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C1-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C3-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C5-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C7-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C9-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CB-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CD-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CF-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D1-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D3-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D5-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D7-8801-534F-8DEC-7DC9AC6DC3D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$I$7:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-805C-4AF9-BC64-2837F418E008}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="10"/>
-      </c:doughnutChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Coxcomb Data Attempt'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Y-Values</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.4622601165931467E-2"/>
-                  <c:y val="-0.31176470588235294"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4DED5DCC-724C-FA44-A125-31242532ED39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000D9-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.9346329487517466E-2"/>
-                  <c:y val="-0.2323529411764706"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{13B0DE99-4804-624B-9640-C7E5E2C69076}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000DA-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.5626560723932174E-2"/>
-                  <c:y val="-0.15588235294117647"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{80977AC0-7F55-9A4D-A65C-48C6FB1B8BDA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000DB-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10376667634213949"/>
-                  <c:y val="-0.12352941176470589"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F5C6E4CB-82DC-3044-84CB-1D16F7B37A44}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000DC-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.0350289045518294E-2"/>
-                  <c:y val="-3.8235294117647062E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{21CA7E74-F3E5-534A-9904-11C4C6B82542}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000DD-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19170453764903736"/>
-                  <c:y val="1.4705882352941069E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4D5F44E2-EAA9-7448-A12F-98FB96C13F40}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000DE-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17235820816151984"/>
-                  <c:y val="0.10294117647058823"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9AEE09C6-851F-AE43-9D23-100FA6E35801}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000DF-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.16532317925696788"/>
-                  <c:y val="0.15"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3C413143-A992-6E41-954D-53874617ED0C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E0-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10376667634213949"/>
-                  <c:y val="0.19117647058823528"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{272C90EE-4DC4-DC44-BE62-87B2815F6D98}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E1-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.0552543356827745E-2"/>
-                  <c:y val="0.31470588235294117"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{893F7CB0-1DCE-3E46-BED3-81520012E837}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E2-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.16708193648310596"/>
-                  <c:y val="0.12941176470588225"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3164E05A-3794-C141-A719-B7566A2B8548}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E3-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.31833505793097028"/>
-                  <c:y val="0.22352941176470589"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{681AEF56-354B-194C-992F-D401E02F1019}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E4-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.39923789033331636"/>
-                  <c:y val="0.18235294117647058"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B6383AEE-BF9F-D94C-A39A-BDF8CF9A3B72}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E5-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.35351020245372944"/>
-                  <c:y val="5.5882352941176473E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6F71BD6F-F8B6-234F-9B82-AB159E843566}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E6-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.20929210991041694"/>
-                  <c:y val="-5.8823529411765781E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5BDED19E-4846-6C42-A2E1-3E4E8523ABC8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E7-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.31833505793097028"/>
-                  <c:y val="-5.8823529411764705E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0984883D-4B85-104A-86EA-F4B91782B25B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E8-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.33240511574007398"/>
-                  <c:y val="-0.20000000000000007"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B1B75269-21B3-E548-A409-AE78EDE849C9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000E9-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.26733109837296959"/>
-                  <c:y val="-0.27058823529411763"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D6662792-496E-1C47-84DB-F1C5F4D8ACFE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000EA-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15301187867400229"/>
-                  <c:y val="-0.31470588235294117"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{93E47BCD-32E3-1840-8E95-CEC2456FE166}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000EB-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$D$2:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>4.8481299739365561E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7409840761405034E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20473757089655592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27905549275417618</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48470013296966519</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16609741550111162</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15262888777584291</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1716689124903974</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15864913101235789</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.743243171345567E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8.2297295140366891E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.9324565506178835E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.2442062204413486</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.66438966200444649</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.32313342197977679</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.10236878544827813</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-5.4116578200780904E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Coxcomb Data Attempt'!$E$2:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.1666659615342477</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28374517251019038</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26304683646546451</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18231605270747567</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12274274357039962</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.376322424538871E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6.6949237442161538E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.15803236671267284</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.29315791706882965</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.16439355056712038</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.49318065170136122</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.14657895853441488</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.10711877990745863</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5.5052896981555161E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.1828495713599597E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.13152341823273214</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15763620695010566</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Coxcomb Data Attempt'!$A$2:$A$20</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="19"/>
-                  <c:pt idx="0">
-                    <c:v>Start</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Cyber Threat Intelligence Maturity</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>I.1 - Depth of Threat Data</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>I.2 - Breadth of Threat Information</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>I.3 - Relevance of Threat Data</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>I.4 - Utilization of Threat Information</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>I.5 - Dissemination of Threat Reporting</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Defensive Measures Maturity</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>D.1 - Foundational security</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>D.2 - Data Collection</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>D.3 - Detection Engineering</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>D.4 - Incident Response</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>D.5 - Deception Operations</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Test &amp; Evaluation Maturity</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>T.1 - Type of Testing</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>T.2 - Frequency of Testing</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>T.3 - Test Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>T.4 - Test Execution</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>T.5 - Test Results</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000D8-8A66-9E4A-9AA2-D4305DE0D7EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="680606303"/>
-        <c:axId val="680558367"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="680558367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.7"/>
-          <c:min val="-0.7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="680606303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="680606303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.7"/>
-          <c:min val="-0.7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="680558367"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="63500" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6772,7 +2940,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7332,7 +3500,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7808,7 +3976,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8275,7 +4443,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9157,46 +5325,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -10208,7 +6336,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10265,7 +6393,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10316,13 +6444,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10333,19 +6454,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10383,7 +6497,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10727,7 +6841,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11737,7 +7851,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12007,20 +8121,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -12031,6 +8131,25 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -12127,6 +8246,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -12763,527 +8893,6 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15064,16 +10673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15103,16 +10712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15149,57 +10758,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF80FA4-4017-ACD4-DFF3-61BEDE698326}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15226,16 +10794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>208654</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>74968</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570604</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>665854</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57038</xdr:rowOff>
+      <xdr:colOff>342004</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15266,15 +10834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15304,16 +10872,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15343,16 +10911,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>611505</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>382905</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15382,16 +10950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -15430,7 +10998,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17230725" y="304800"/>
+              <a:off x="16897350" y="333375"/>
               <a:ext cx="3714750" cy="1997075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15786,8 +11354,8 @@
   </sheetPr>
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15819,8 +11387,8 @@
   </sheetPr>
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15852,8 +11420,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15883,326 +11451,276 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="C5" s="44"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="65" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="65" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65" t="s">
+      <c r="H7" s="67"/>
+      <c r="I7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="65" t="s">
+      <c r="J7" s="67"/>
+      <c r="K7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="66"/>
+      <c r="L7" s="67"/>
     </row>
-    <row r="8" spans="1:12" s="49" customFormat="1" ht="88" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="1:12" s="44" customFormat="1" ht="88" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="50">
         <v>0</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="56" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="58" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="57" t="s">
-        <v>19</v>
-      </c>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="35">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>22</v>
-      </c>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="34">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="35">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="34">
+        <v>2</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="35">
-        <v>2</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="35">
+        <v>2</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="36">
-        <v>2</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="27">
         <f>AVERAGE(D14,F14,H14,J14,L14)</f>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="24">
         <f>SUMIF(D9:D13,"yes",$B$9:$B$13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="18">
         <f>SUMIF(F9:F13,"yes",$B$9:$B$13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="18">
         <f>SUMIF(H9:H13,"yes",$B$9:$B$13)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="18">
         <f>SUMIF(J9:J13,"yes",$B$9:$B$13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L14" s="18">
         <f>SUMIF(L9:L13,"yes",$B$9:$B$13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -16214,30 +11732,45 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="17" spans="3:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="63" t="s">
         <v>51</v>
       </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="39" t="s">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="63" t="s">
         <v>52</v>
       </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="39" t="s">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="63" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -16248,13 +11781,18 @@
     <protectedRange sqref="J9:J13" name="Utilization Input"/>
     <protectedRange sqref="L9:L13" name="Dissemination Input"/>
   </protectedRanges>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D13 F9:F13 J9:J13 L9:L13 H9:H13" xr:uid="{3CD70138-F1AC-428B-A8FC-FB021C4E8F76}">
@@ -16279,8 +11817,8 @@
   </sheetPr>
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16306,382 +11844,368 @@
     </row>
     <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
-        <v>57</v>
+      <c r="C4" s="39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="67" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="68" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="J7" s="70"/>
+      <c r="K7" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="69"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="110" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="F8" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="H8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="I8" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="J8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="K8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>0</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="56" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="58" t="s">
+      <c r="J9" s="56"/>
+      <c r="K9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="61" t="s">
-        <v>19</v>
-      </c>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="35">
+      <c r="A10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="35">
+      <c r="A11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="34">
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="J11" s="33"/>
+      <c r="K11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="198" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="A12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="34">
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="36">
+      <c r="A13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="35">
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="H13" s="33"/>
+      <c r="I13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="J13" s="33"/>
+      <c r="K13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="29">
         <f>AVERAGE(D14,F14,H14,J14,L14)</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="18">
         <f>SUMIF(D9:D13,"yes",$B$9:$B$13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="18">
         <f>SUMIF(F9:F13,"yes",$B$9:$B$13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="18">
         <f>SUMIF(H9:H13,"yes",$B$9:$B$13)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14" s="18">
         <f>SUMIF(J9:J13,"yes",$B$9:$B$13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L14" s="18">
         <f>SUMIF(L9:L13,"yes",$B$9:$B$13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" s="62" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="39" t="s">
+    <row r="18" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="63" t="s">
         <v>95</v>
       </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="39" t="s">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="63" t="s">
         <v>96</v>
       </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="39" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="63" t="s">
         <v>97</v>
       </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="39" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="63" t="s">
         <v>98</v>
       </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="39" t="s">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="63" t="s">
         <v>99</v>
       </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="39" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="63" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="39" t="s">
-        <v>102</v>
-      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D9:D13 F9:F13 H9:H13 J9:J13 L9:L13" name="DM Input"/>
   </protectedRanges>
-  <mergeCells count="6">
+  <mergeCells count="15">
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D13 H9:H13 J9:J13 F9:F13 L9:L13" xr:uid="{C6279A5D-D924-445C-9B43-75781785D130}">
@@ -16710,8 +12234,8 @@
   </sheetPr>
   <dimension ref="A3:L22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16732,367 +12256,341 @@
   <sheetData>
     <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
-        <v>104</v>
+      <c r="C4" s="39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="67" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="70" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="70" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70" t="s">
+      <c r="J7" s="76"/>
+      <c r="K7" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="71"/>
+      <c r="L7" s="78"/>
     </row>
     <row r="8" spans="1:12" ht="66" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50" t="s">
-        <v>63</v>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="H8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="J8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="K8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="50">
         <v>0</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="56" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="58" t="s">
+      <c r="J9" s="56"/>
+      <c r="K9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="61" t="s">
-        <v>19</v>
-      </c>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="35">
+      <c r="A10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>22</v>
-      </c>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="35">
+      <c r="A11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="34">
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="J11" s="33"/>
+      <c r="K11" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="A12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="34">
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="36">
+      <c r="A13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="35">
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="H13" s="33"/>
+      <c r="I13" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="J13" s="33"/>
+      <c r="K13" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="28">
         <f>AVERAGE(D14,F14,H14,J14,L14)</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" s="18">
         <f>SUMIF(D9:D13,"yes",$B$9:$B$13)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="18">
         <f>SUMIF(F9:F13,"yes",$B$9:$B$13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H14" s="18">
         <f>SUMIF(H9:H13,"yes",$B$9:$B$13)</f>
         <v>0</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J14" s="18">
         <f>SUMIF(J9:J13,"yes",$B$9:$B$13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L14" s="18">
         <f>SUMIF(L9:L13,"yes",$B$9:$B$13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" s="62" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="39" t="s">
+    <row r="18" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="63" t="s">
         <v>141</v>
       </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="39" t="s">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="63" t="s">
         <v>142</v>
       </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="39" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="63" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="39" t="s">
-        <v>145</v>
-      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D9:D13 F9:F13 H9:H13 J9:J13 L9:L13" name="TE Input"/>
   </protectedRanges>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D13 F9:F13 H9:H13 J9:J13 L9:L13" xr:uid="{1AAA1699-EA7E-467C-B70E-4DF1B75BAEF1}">
@@ -17118,8 +12616,8 @@
   </sheetPr>
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17134,12 +12632,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -17149,58 +12647,58 @@
     </row>
     <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="8" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="E8" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="F8" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="G8" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="14">
+      <c r="B9" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="58">
         <f>((0.5*G16)+(0.3*G10)+(0.2*G22))/((0.5*6)+(0.3*6)+(0.2*6))</f>
-        <v>0.26</v>
-      </c>
-      <c r="H9" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
+        <v>152</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="15">
         <f>AVERAGE(G11:G15)</f>
-        <v>1.8</v>
-      </c>
-      <c r="H10" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -17208,11 +12706,11 @@
       </c>
       <c r="C11" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!D10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D11" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!D11="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="E11" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!D12="yes","x","")</f>
@@ -17224,7 +12722,7 @@
       </c>
       <c r="G11" s="9">
         <f>'CTI Definition &amp; Scoring'!D14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -17233,11 +12731,11 @@
       </c>
       <c r="C12" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!F10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D12" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!F11="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="E12" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!F12="yes","x","")</f>
@@ -17249,7 +12747,7 @@
       </c>
       <c r="G12" s="9">
         <f>'CTI Definition &amp; Scoring'!F14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -17258,7 +12756,7 @@
       </c>
       <c r="C13" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!H10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D13" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!H11="yes","x","")</f>
@@ -17266,7 +12764,7 @@
       </c>
       <c r="E13" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!H12="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="F13" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!H13="yes","x","")</f>
@@ -17274,7 +12772,7 @@
       </c>
       <c r="G13" s="9">
         <f>'CTI Definition &amp; Scoring'!H14</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -17283,7 +12781,7 @@
       </c>
       <c r="C14" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!J10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D14" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!J11="yes","x","")</f>
@@ -17299,7 +12797,7 @@
       </c>
       <c r="G14" s="9">
         <f>'CTI Definition &amp; Scoring'!J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -17308,7 +12806,7 @@
       </c>
       <c r="C15" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!L10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D15" s="9" t="str">
         <f>IF('CTI Definition &amp; Scoring'!L11="yes","x","")</f>
@@ -17324,36 +12822,36 @@
       </c>
       <c r="G15" s="9">
         <f>'CTI Definition &amp; Scoring'!L14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
+        <v>153</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="17">
         <f>AVERAGE(G17:G21)</f>
-        <v>1.4</v>
-      </c>
-      <c r="H16" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!D10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D17" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!D11="yes","x","")</f>
-        <v>x</v>
-      </c>
-      <c r="E17" s="38" t="str">
+        <v/>
+      </c>
+      <c r="E17" s="37" t="str">
         <f>IF('DM Definition &amp; Scoring'!D12="yes","x","")</f>
         <v/>
       </c>
@@ -17363,12 +12861,12 @@
       </c>
       <c r="G17" s="9">
         <f>'DM Definition &amp; Scoring'!D14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!F10="yes","x","")</f>
@@ -17376,9 +12874,9 @@
       </c>
       <c r="D18" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!F11="yes","x","")</f>
-        <v>x</v>
-      </c>
-      <c r="E18" s="38" t="str">
+        <v/>
+      </c>
+      <c r="E18" s="37" t="str">
         <f>IF('DM Definition &amp; Scoring'!F12="yes","x","")</f>
         <v/>
       </c>
@@ -17388,24 +12886,24 @@
       </c>
       <c r="G18" s="9">
         <f>'DM Definition &amp; Scoring'!F14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!H10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D19" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!H11="yes","x","")</f>
         <v/>
       </c>
-      <c r="E19" s="38" t="str">
+      <c r="E19" s="37" t="str">
         <f>IF('DM Definition &amp; Scoring'!H12="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="F19" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!H13="yes","x","")</f>
@@ -17413,22 +12911,22 @@
       </c>
       <c r="G19" s="9">
         <f>'DM Definition &amp; Scoring'!H14</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!J10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D20" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!J11="yes","x","")</f>
         <v/>
       </c>
-      <c r="E20" s="38" t="str">
+      <c r="E20" s="37" t="str">
         <f>IF('DM Definition &amp; Scoring'!J12="yes","x","")</f>
         <v/>
       </c>
@@ -17438,12 +12936,12 @@
       </c>
       <c r="G20" s="9">
         <f>'DM Definition &amp; Scoring'!J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>IF('DM Definition &amp; Scoring'!L10="yes","x","")</f>
@@ -17453,7 +12951,7 @@
         <f>IF('DM Definition &amp; Scoring'!L11="yes","x","")</f>
         <v/>
       </c>
-      <c r="E21" s="38" t="str">
+      <c r="E21" s="37" t="str">
         <f>IF('DM Definition &amp; Scoring'!L12="yes","x","")</f>
         <v/>
       </c>
@@ -17468,21 +12966,21 @@
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
+        <v>156</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="16">
         <f>AVERAGE(G23:G27)</f>
-        <v>1.6</v>
-      </c>
-      <c r="H22" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!D10="yes","x","")</f>
@@ -17494,28 +12992,28 @@
       </c>
       <c r="E23" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!D12="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="F23" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!D13="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="G23" s="9">
         <f>'T&amp;E Definition &amp; Scoring'!D14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!F10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D24" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!F11="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="E24" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!F12="yes","x","")</f>
@@ -17527,12 +13025,12 @@
       </c>
       <c r="G24" s="9">
         <f>'T&amp;E Definition &amp; Scoring'!F14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!H10="yes","x","")</f>
@@ -17557,11 +13055,11 @@
     </row>
     <row r="26" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!J10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D26" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!J11="yes","x","")</f>
@@ -17577,16 +13075,16 @@
       </c>
       <c r="G26" s="9">
         <f>'T&amp;E Definition &amp; Scoring'!J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!L10="yes","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="D27" s="9" t="str">
         <f>IF('T&amp;E Definition &amp; Scoring'!L11="yes","x","")</f>
@@ -17602,23 +13100,23 @@
       </c>
       <c r="G27" s="9">
         <f>'T&amp;E Definition &amp; Scoring'!L14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" t="s">
         <v>160</v>
-      </c>
-      <c r="H30" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17627,15 +13125,15 @@
       </c>
       <c r="G31">
         <f>'CTI Definition &amp; Scoring'!D14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f>'DM Definition &amp; Scoring'!D14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <f>'T&amp;E Definition &amp; Scoring'!D14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17644,15 +13142,15 @@
       </c>
       <c r="G32">
         <f>'CTI Definition &amp; Scoring'!F14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <f>'DM Definition &amp; Scoring'!F14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <f>'T&amp;E Definition &amp; Scoring'!F14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17661,11 +13159,11 @@
       </c>
       <c r="G33">
         <f>'CTI Definition &amp; Scoring'!H14</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <f>'DM Definition &amp; Scoring'!H14</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <f>'T&amp;E Definition &amp; Scoring'!H14</f>
@@ -17678,15 +13176,15 @@
       </c>
       <c r="G34">
         <f>'CTI Definition &amp; Scoring'!J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <f>'DM Definition &amp; Scoring'!J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <f>'T&amp;E Definition &amp; Scoring'!J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17695,7 +13193,7 @@
       </c>
       <c r="G35">
         <f>'CTI Definition &amp; Scoring'!L14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f>'DM Definition &amp; Scoring'!L14</f>
@@ -17703,7 +13201,7 @@
       </c>
       <c r="I35">
         <f>'T&amp;E Definition &amp; Scoring'!L14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17842,875 +13340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD198C2-2DE9-4A48-B88A-A43A5DADD474}">
-  <dimension ref="A1:Z26"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" t="str" cm="1">
-        <f t="array" ref="I1:Z1">TRANSPOSE(A3:A20)</f>
-        <v>Cyber Threat Intelligence Maturity</v>
-      </c>
-      <c r="J1" t="str">
-        <v>I.1 - Depth of Threat Data</v>
-      </c>
-      <c r="K1" t="str">
-        <v>I.2 - Breadth of Threat Information</v>
-      </c>
-      <c r="L1" t="str">
-        <v>I.3 - Relevance of Threat Data</v>
-      </c>
-      <c r="M1" t="str">
-        <v>I.4 - Utilization of Threat Information</v>
-      </c>
-      <c r="N1" t="str">
-        <v>I.5 - Dissemination of Threat Reporting</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Defensive Measures Maturity</v>
-      </c>
-      <c r="P1" t="str">
-        <v>D.1 - Foundational security</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>D.2 - Data Collection</v>
-      </c>
-      <c r="R1" t="str">
-        <v>D.3 - Detection Engineering</v>
-      </c>
-      <c r="S1" t="str">
-        <v>D.4 - Incident Response</v>
-      </c>
-      <c r="T1" t="str">
-        <v>D.5 - Deception Operations</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Test &amp; Evaluation Maturity</v>
-      </c>
-      <c r="V1" t="str">
-        <v>T.1 - Type of Testing</v>
-      </c>
-      <c r="W1" t="str">
-        <v>T.2 - Frequency of Testing</v>
-      </c>
-      <c r="X1" t="str">
-        <v>T.3 - Test Planning</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>T.4 - Test Execution</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>T.5 - Test Results</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D2">
-        <f>C2*SIN(B2/180*PI())</f>
-        <v>4.8481299739365561E-4</v>
-      </c>
-      <c r="E2">
-        <f>C2*COS(B2/180*PI())</f>
-        <v>0.1666659615342477</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>Results!B10</f>
-        <v>Cyber Threat Intelligence Maturity</v>
-      </c>
-      <c r="B3" s="1">
-        <f>360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>18.94736842105263</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Results!G10/6</f>
-        <v>0.3</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">C3*SIN(B3/180*PI())</f>
-        <v>9.7409840761405034E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E20" si="1">C3*COS(B3/180*PI())</f>
-        <v>0.28374517251019038</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>Results!B11</f>
-        <v>I.1 - Depth of Threat Data</v>
-      </c>
-      <c r="B4" s="1">
-        <f>B3+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>37.89473684210526</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Results!G11/6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.20473757089655592</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.26304683646546451</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f>Results!B12</f>
-        <v>I.2 - Breadth of Threat Information</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B4+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>56.84210526315789</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Results!G12/6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.27905549275417618</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.18231605270747567</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f>Results!B13</f>
-        <v>I.3 - Relevance of Threat Data</v>
-      </c>
-      <c r="B6" s="1">
-        <f>B5+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>75.78947368421052</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Results!G13/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.48470013296966519</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.12274274357039962</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f>Results!B14</f>
-        <v>I.4 - Utilization of Threat Information</v>
-      </c>
-      <c r="B7" s="1">
-        <f>B6+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>94.73684210526315</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Results!G14/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.16609741550111162</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-1.376322424538871E-2</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f>Results!B15</f>
-        <v>I.5 - Dissemination of Threat Reporting</v>
-      </c>
-      <c r="B8" s="1">
-        <f>B7+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>113.68421052631578</v>
-      </c>
-      <c r="C8" s="1">
-        <f>Results!G15/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.15262888777584291</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>-6.6949237442161538E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f>Results!B16</f>
-        <v>Defensive Measures Maturity</v>
-      </c>
-      <c r="B9" s="1">
-        <f>B8+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>132.63157894736841</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Results!G16/6</f>
-        <v>0.23333333333333331</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.1716689124903974</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-0.15803236671267284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f>Results!B17</f>
-        <v>D.1 - Foundational security</v>
-      </c>
-      <c r="B10" s="1">
-        <f>B9+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>151.57894736842104</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Results!G17/6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.15864913101235789</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>-0.29315791706882965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>Results!B18</f>
-        <v>D.2 - Data Collection</v>
-      </c>
-      <c r="B11" s="1">
-        <f>B10+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>170.52631578947367</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Results!G18/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2.743243171345567E-2</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-0.16439355056712038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f>Results!B19</f>
-        <v>D.3 - Detection Engineering</v>
-      </c>
-      <c r="B12" s="1">
-        <f>B11+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>189.4736842105263</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Results!G19/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>-8.2297295140366891E-2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>-0.49318065170136122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f>Results!B20</f>
-        <v>D.4 - Incident Response</v>
-      </c>
-      <c r="B13" s="1">
-        <f>B12+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>208.42105263157893</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Results!G20/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>-7.9324565506178835E-2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>-0.14657895853441488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>Results!B21</f>
-        <v>D.5 - Deception Operations</v>
-      </c>
-      <c r="B14" s="1">
-        <f>B13+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>227.36842105263156</v>
-      </c>
-      <c r="C14" s="1">
-        <f>Results!G21/6</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f>Results!B22</f>
-        <v>Test &amp; Evaluation Maturity</v>
-      </c>
-      <c r="B15" s="1">
-        <f>B14+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>246.31578947368419</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Results!G22/6</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-0.2442062204413486</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-0.10711877990745863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f>Results!B23</f>
-        <v>T.1 - Type of Testing</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B15+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>265.26315789473682</v>
-      </c>
-      <c r="C16" s="1">
-        <f>Results!G23/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-0.66438966200444649</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>-5.5052896981555161E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>Results!B24</f>
-        <v>T.2 - Frequency of Testing</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B16+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>284.21052631578948</v>
-      </c>
-      <c r="C17" s="1">
-        <f>Results!G24/6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>-0.32313342197977679</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>8.1828495713599597E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f>Results!B25</f>
-        <v>T.3 - Test Planning</v>
-      </c>
-      <c r="B18" s="1">
-        <f>B17+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>303.15789473684208</v>
-      </c>
-      <c r="C18" s="1">
-        <f>Results!G25/6</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f>Results!B26</f>
-        <v>T.4 - Test Execution</v>
-      </c>
-      <c r="B19" s="1">
-        <f>B18+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>322.10526315789468</v>
-      </c>
-      <c r="C19" s="1">
-        <f>Results!G26/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-0.10236878544827813</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.13152341823273214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f>Results!B27</f>
-        <v>T.5 - Test Results</v>
-      </c>
-      <c r="B20" s="1">
-        <f>B19+360/COUNTA(Results!$B$9:$B$27)</f>
-        <v>341.05263157894728</v>
-      </c>
-      <c r="C20" s="1">
-        <f>Results!G27/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>-5.4116578200780904E-2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.15763620695010566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1" xr:uid="{DA3F313A-1555-DA4D-9A96-5C9C6C1822E4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BCF52-8F41-4930-8692-CA614BA32862}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18721,25 +13358,25 @@
   <sheetData>
     <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B1" s="14">
         <f>(B8*((0.66*B2)+(0.34*B14)))/(10*((0.66*10)+(0.34*10)))</f>
         <v>1.264E-2</v>
       </c>
-      <c r="G1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" t="s">
-        <v>173</v>
+      <c r="G1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="15">
         <f>AVERAGE(B3:B7)</f>
@@ -18757,10 +13394,13 @@
       <c r="F2">
         <v>4</v>
       </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B3" s="9">
         <f>G3</f>
@@ -18778,19 +13418,19 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B4" s="9">
         <f>G4</f>
@@ -18808,19 +13448,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B5" s="9">
         <f>G5</f>
@@ -18835,19 +13475,19 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B6" s="9">
         <f>G6</f>
@@ -18862,19 +13502,19 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B7" s="9">
         <f>G7</f>
@@ -18892,32 +13532,35 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="17">
         <f>AVERAGE(B9:B13)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B9" s="9">
         <f>G9</f>
@@ -18935,19 +13578,19 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B10" s="9">
         <f>G10</f>
@@ -18965,19 +13608,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B11" s="9">
         <f>G11</f>
@@ -18995,19 +13638,19 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B12" s="9">
         <f>G12</f>
@@ -19025,50 +13668,53 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B13" s="9">
         <f>G13</f>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" s="16">
         <f>AVERAGE(B15:B19)</f>
         <v>1</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B15" s="9">
         <f>G15</f>
@@ -19086,31 +13732,32 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <v>6</v>
       </c>
-      <c r="AC15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>185</v>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B16" s="9">
         <f>G16</f>
@@ -19119,37 +13766,37 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="9">
         <v>4</v>
       </c>
-      <c r="AB16" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC16">
+      <c r="AB16" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC16" s="9">
         <f>$AF$16*AVERAGE(G3:G7)</f>
         <v>0.35</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="9">
         <f>$AF$16*AVERAGE(H3:H7)</f>
         <v>0.45</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="9">
         <f>$AF$16*AVERAGE(I3:I7)</f>
         <v>0.7</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="9">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B17" s="9">
         <f>G17</f>
@@ -19161,37 +13808,37 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
         <v>4</v>
       </c>
-      <c r="AB17" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC17">
+      <c r="AB17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC17" s="9">
         <f>$AF$17*AVERAGE(G9:G13)</f>
         <v>0.5</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="9">
         <f>$AF$17*AVERAGE(H9:H13)</f>
         <v>0.7</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="9">
         <f>$AF$17*AVERAGE(I9:I13)</f>
         <v>1.7</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B18" s="9">
         <f>G18</f>
@@ -19200,121 +13847,133 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
         <v>4</v>
       </c>
-      <c r="AB18" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC18">
+      <c r="AB18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC18" s="9">
         <f>$AF$18*AVERAGE(G15:G19)</f>
         <v>0.25</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="9">
         <f>$AF$18*AVERAGE(H15:H19)</f>
         <v>0.4</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="9">
         <f>$AF$18*AVERAGE(I15:I19)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="9">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B19" s="9">
         <f>G19</f>
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" t="s">
-        <v>173</v>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22">
+      <c r="A22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
         <f>AVERAGE(G3:G7)</f>
         <v>1.4</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="9">
         <f t="shared" ref="H22" si="0">AVERAGE(H3:H7)</f>
         <v>1.8</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="9">
         <f>AVERAGE(I3:I7)</f>
         <v>2.8</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23">
+      <c r="A23" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
         <f>AVERAGE(G9:G13)</f>
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="9">
         <f t="shared" ref="H23" si="1">AVERAGE(H9:H13)</f>
         <v>1.4</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="9">
         <f>AVERAGE(I9:I13)</f>
         <v>3.4</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24">
+      <c r="A24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
         <f>AVERAGE(G15:G19)</f>
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="9">
         <f t="shared" ref="H24" si="2">AVERAGE(H15:H19)</f>
         <v>1.6</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="9">
         <f>AVERAGE(I15:I19)</f>
         <v>4.4000000000000004</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
